--- a/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_errors_latest_since_2021.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_errors_latest_since_2021.xlsx
@@ -513,22 +513,22 @@
         <v>-0.1460550576300293</v>
       </c>
       <c r="F2">
-        <v>-0.2481613187209393</v>
+        <v>-0.2386646425575917</v>
       </c>
       <c r="G2">
-        <v>0.5011310928323041</v>
+        <v>0.4822622889884105</v>
       </c>
       <c r="H2">
-        <v>-0.2361995478939153</v>
+        <v>-0.2266896356254442</v>
       </c>
       <c r="I2">
         <v>0.2654163566970329</v>
       </c>
       <c r="J2">
-        <v>0.7258261396708795</v>
+        <v>0.7352211039700201</v>
       </c>
       <c r="K2">
-        <v>1.066842166737449</v>
+        <v>1.048046298935466</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -545,25 +545,25 @@
         <v>-2.293625529429422</v>
       </c>
       <c r="E3">
-        <v>-2.395731790520331</v>
+        <v>-2.386235114356984</v>
       </c>
       <c r="F3">
-        <v>-1.646439378967088</v>
+        <v>-1.665308182810982</v>
       </c>
       <c r="G3">
-        <v>-2.383770019693308</v>
+        <v>-2.374260107424837</v>
       </c>
       <c r="H3">
         <v>-1.88215411510236</v>
       </c>
       <c r="I3">
-        <v>-1.421744332128513</v>
+        <v>-1.412349367829372</v>
       </c>
       <c r="J3">
-        <v>-1.080728305061943</v>
+        <v>-1.099524172863926</v>
       </c>
       <c r="K3">
-        <v>-1.987443283555525</v>
+        <v>-1.977926754115506</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -577,28 +577,28 @@
         <v>1.146404457093908</v>
       </c>
       <c r="D4">
-        <v>1.044298196002998</v>
+        <v>1.053794872166346</v>
       </c>
       <c r="E4">
-        <v>1.793590607556242</v>
+        <v>1.774721803712348</v>
       </c>
       <c r="F4">
-        <v>1.056259966830022</v>
+        <v>1.065769879098493</v>
       </c>
       <c r="G4">
         <v>1.55787587142097</v>
       </c>
       <c r="H4">
-        <v>2.018285654394817</v>
+        <v>2.027680618693958</v>
       </c>
       <c r="I4">
-        <v>2.359301681461387</v>
+        <v>2.340505813659403</v>
       </c>
       <c r="J4">
-        <v>1.452586702967805</v>
+        <v>1.462103232407824</v>
       </c>
       <c r="K4">
-        <v>0.7227080498514589</v>
+        <v>0.7321912172293545</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -609,31 +609,31 @@
         <v>1.207578635508109</v>
       </c>
       <c r="C5">
-        <v>1.105472374417199</v>
+        <v>1.114969050580547</v>
       </c>
       <c r="D5">
-        <v>1.854764785970443</v>
+        <v>1.835895982126549</v>
       </c>
       <c r="E5">
-        <v>1.117434145244223</v>
+        <v>1.126944057512694</v>
       </c>
       <c r="F5">
         <v>1.619050049835171</v>
       </c>
       <c r="G5">
-        <v>2.079459832809018</v>
+        <v>2.088854797108159</v>
       </c>
       <c r="H5">
-        <v>2.420475859875588</v>
+        <v>2.401679992073604</v>
       </c>
       <c r="I5">
-        <v>1.513760881382006</v>
+        <v>1.523277410822025</v>
       </c>
       <c r="J5">
-        <v>0.7838822282656599</v>
+        <v>0.7933653956435556</v>
       </c>
       <c r="K5">
-        <v>2.45547295005447</v>
+        <v>2.455544492033183</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -641,34 +641,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.9359835627390551</v>
+        <v>-0.9264868865757077</v>
       </c>
       <c r="C6">
-        <v>-0.1866911511858119</v>
+        <v>-0.2055599550297054</v>
       </c>
       <c r="D6">
-        <v>-0.9240217919120313</v>
+        <v>-0.9145118796435601</v>
       </c>
       <c r="E6">
         <v>-0.422405887321083</v>
       </c>
       <c r="F6">
-        <v>0.03800389565276358</v>
+        <v>0.04739885995190407</v>
       </c>
       <c r="G6">
-        <v>0.3790199227193335</v>
+        <v>0.36022405491735</v>
       </c>
       <c r="H6">
-        <v>-0.5276950557742481</v>
+        <v>-0.5181785263342299</v>
       </c>
       <c r="I6">
-        <v>-1.257573708890594</v>
+        <v>-1.248090541512699</v>
       </c>
       <c r="J6">
-        <v>0.4140170128982152</v>
+        <v>0.4140885548769285</v>
       </c>
       <c r="K6">
-        <v>-0.1862047921269588</v>
+        <v>-0.2051307335183153</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -676,34 +676,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.3959033858478291</v>
+        <v>0.3770345820039356</v>
       </c>
       <c r="C7">
-        <v>-0.3414272548783902</v>
+        <v>-0.3319173426099191</v>
       </c>
       <c r="D7">
         <v>0.160188649712558</v>
       </c>
       <c r="E7">
-        <v>0.6205984326864046</v>
+        <v>0.6299933969855451</v>
       </c>
       <c r="F7">
-        <v>0.9616144597529745</v>
+        <v>0.942818591950991</v>
       </c>
       <c r="G7">
-        <v>0.0548994812593929</v>
+        <v>0.06441601069941108</v>
       </c>
       <c r="H7">
-        <v>-0.6749791718569536</v>
+        <v>-0.6654960044790579</v>
       </c>
       <c r="I7">
-        <v>0.9966115499318562</v>
+        <v>0.9966830919105695</v>
       </c>
       <c r="J7">
-        <v>0.3963897449066822</v>
+        <v>0.3774638035153257</v>
       </c>
       <c r="K7">
-        <v>0.6053185832282579</v>
+        <v>0.6147675671350392</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -711,31 +711,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.437102295687748</v>
+        <v>-0.4275923834192769</v>
       </c>
       <c r="C8">
         <v>0.0645136089032002</v>
       </c>
       <c r="D8">
-        <v>0.5249233918770468</v>
+        <v>0.5343183561761873</v>
       </c>
       <c r="E8">
-        <v>0.8659394189436167</v>
+        <v>0.8471435511416332</v>
       </c>
       <c r="F8">
-        <v>-0.0407755595499649</v>
+        <v>-0.03125903010994671</v>
       </c>
       <c r="G8">
-        <v>-0.7706542126663114</v>
+        <v>-0.7611710452884157</v>
       </c>
       <c r="H8">
-        <v>0.9009365091224983</v>
+        <v>0.9010080511012117</v>
       </c>
       <c r="I8">
-        <v>0.3007147040973244</v>
+        <v>0.2817887627059679</v>
       </c>
       <c r="J8">
-        <v>0.5096435424189001</v>
+        <v>0.5190925263256815</v>
       </c>
       <c r="K8">
         <v>0.4158151564502698</v>
@@ -749,31 +749,31 @@
         <v>0.324932645901923</v>
       </c>
       <c r="C9">
-        <v>0.7853424288757695</v>
+        <v>0.7947373931749101</v>
       </c>
       <c r="D9">
-        <v>1.12635845594234</v>
+        <v>1.107562588140356</v>
       </c>
       <c r="E9">
-        <v>0.2196434774487579</v>
+        <v>0.2291600068887761</v>
       </c>
       <c r="F9">
-        <v>-0.5102351756675885</v>
+        <v>-0.5007520082896928</v>
       </c>
       <c r="G9">
-        <v>1.161355546121221</v>
+        <v>1.161427088099934</v>
       </c>
       <c r="H9">
-        <v>0.5611337410960472</v>
+        <v>0.5422077997046907</v>
       </c>
       <c r="I9">
-        <v>0.7700625794176229</v>
+        <v>0.7795115633244043</v>
       </c>
       <c r="J9">
         <v>0.6762341934489926</v>
       </c>
       <c r="K9">
-        <v>-0.1630969307778141</v>
+        <v>-0.1153642338804421</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -781,34 +781,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.05011256728272162</v>
+        <v>-0.04071760298358112</v>
       </c>
       <c r="C10">
-        <v>0.2909034597838484</v>
+        <v>0.2721075919818648</v>
       </c>
       <c r="D10">
-        <v>-0.6158115187097333</v>
+        <v>-0.6062949892697151</v>
       </c>
       <c r="E10">
-        <v>-1.34569017182608</v>
+        <v>-1.336207004448184</v>
       </c>
       <c r="F10">
-        <v>0.32590054996273</v>
+        <v>0.3259720919414433</v>
       </c>
       <c r="G10">
-        <v>-0.274321255062444</v>
+        <v>-0.2932471964538005</v>
       </c>
       <c r="H10">
-        <v>-0.06539241674086832</v>
+        <v>-0.05594343283408693</v>
       </c>
       <c r="I10">
         <v>-0.1592208027094986</v>
       </c>
       <c r="J10">
-        <v>-0.9985519269363053</v>
+        <v>-0.9508192300389333</v>
       </c>
       <c r="K10">
-        <v>-0.2359516323112753</v>
+        <v>-0.3403303223714723</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -816,31 +816,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.3909828196864699</v>
+        <v>0.3721869518844864</v>
       </c>
       <c r="C11">
-        <v>-0.5157321588071118</v>
+        <v>-0.5062156293670936</v>
       </c>
       <c r="D11">
-        <v>-1.245610811923458</v>
+        <v>-1.236127644545562</v>
       </c>
       <c r="E11">
-        <v>0.4259799098653515</v>
+        <v>0.4260514518440648</v>
       </c>
       <c r="F11">
-        <v>-0.1742418951598225</v>
+        <v>-0.193167836551179</v>
       </c>
       <c r="G11">
-        <v>0.03468694316175319</v>
+        <v>0.04413592706853459</v>
       </c>
       <c r="H11">
         <v>-0.05914144280687711</v>
       </c>
       <c r="I11">
-        <v>-0.8984725670336838</v>
+        <v>-0.8507398701363118</v>
       </c>
       <c r="J11">
-        <v>-0.1358722724086538</v>
+        <v>-0.2402509624688508</v>
+      </c>
+      <c r="K11">
+        <v>-0.4017729932881683</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -848,28 +851,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.1619456527274156</v>
+        <v>-0.1524291232873974</v>
       </c>
       <c r="C12">
-        <v>-0.891824305843762</v>
+        <v>-0.8823411384658664</v>
       </c>
       <c r="D12">
-        <v>0.7797664159450477</v>
+        <v>0.779837957923761</v>
       </c>
       <c r="E12">
-        <v>0.1795446109198737</v>
+        <v>0.1606186695285172</v>
       </c>
       <c r="F12">
-        <v>0.3884734492414494</v>
+        <v>0.3979224331482308</v>
       </c>
       <c r="G12">
         <v>0.2946450632728191</v>
       </c>
       <c r="H12">
-        <v>-0.5446860609539876</v>
+        <v>-0.4969533640566156</v>
       </c>
       <c r="I12">
-        <v>0.2179142336710425</v>
+        <v>0.1135355436108454</v>
+      </c>
+      <c r="J12">
+        <v>-0.04798648720847212</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -877,25 +883,28 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1.040001696276207</v>
+        <v>-1.030518528898312</v>
       </c>
       <c r="C13">
-        <v>0.6315890255126024</v>
+        <v>0.6316605674913157</v>
       </c>
       <c r="D13">
-        <v>0.0313672204874284</v>
+        <v>0.0124412790960719</v>
       </c>
       <c r="E13">
-        <v>0.2402960588090041</v>
+        <v>0.2497450427157855</v>
       </c>
       <c r="F13">
         <v>0.1464676728403738</v>
       </c>
       <c r="G13">
-        <v>-0.6928634513864329</v>
+        <v>-0.6451307544890609</v>
       </c>
       <c r="H13">
-        <v>0.06973684323859711</v>
+        <v>-0.03464184682159993</v>
+      </c>
+      <c r="I13">
+        <v>-0.1961638776409175</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -903,22 +912,25 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.4741430365084474</v>
+        <v>0.4742145784871607</v>
       </c>
       <c r="C14">
-        <v>-0.1260787685167266</v>
+        <v>-0.1450047099080831</v>
       </c>
       <c r="D14">
-        <v>0.0828500698048491</v>
+        <v>0.0922990537116305</v>
       </c>
       <c r="E14">
         <v>-0.0109783161637812</v>
       </c>
       <c r="F14">
-        <v>-0.850309440390588</v>
+        <v>-0.8025767434932158</v>
       </c>
       <c r="G14">
-        <v>-0.08770914576555788</v>
+        <v>-0.1920878358257549</v>
+      </c>
+      <c r="H14">
+        <v>-0.3536098666450724</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,19 +938,22 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.3745806880093442</v>
+        <v>0.3556547466179877</v>
       </c>
       <c r="C15">
-        <v>0.5835095263309199</v>
+        <v>0.5929585102377013</v>
       </c>
       <c r="D15">
         <v>0.4896811403622896</v>
       </c>
       <c r="E15">
-        <v>-0.3496499838645171</v>
+        <v>-0.3019172869671451</v>
       </c>
       <c r="F15">
-        <v>0.4129503107605129</v>
+        <v>0.3085716207003159</v>
+      </c>
+      <c r="G15">
+        <v>0.1470495898809984</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -946,19 +961,22 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.3031516457954507</v>
+        <v>0.3126006297022321</v>
       </c>
       <c r="C16">
         <v>0.2093232598268204</v>
       </c>
       <c r="D16">
-        <v>-0.6300078643999862</v>
+        <v>-0.5822751675026142</v>
       </c>
       <c r="E16">
-        <v>0.1325924302250437</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02821374016484672</v>
+      </c>
+      <c r="F16">
+        <v>-0.1333082906544708</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -966,34 +984,46 @@
         <v>0.3812981176718321</v>
       </c>
       <c r="C17">
-        <v>-0.4580330065549746</v>
+        <v>-0.4103003096576026</v>
       </c>
       <c r="D17">
-        <v>0.3045672880700554</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.2001885980098584</v>
+      </c>
+      <c r="E17">
+        <v>0.03866656719054083</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-0.7638955463013062</v>
+        <v>-0.716162849403934</v>
       </c>
       <c r="C18">
-        <v>-0.001295251676276088</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.1056739417364731</v>
+      </c>
+      <c r="D18">
+        <v>-0.2671959725557906</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.6110347010110101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.506656010950813</v>
+      </c>
+      <c r="C19">
+        <v>0.3451339801314955</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-0.343237405067616</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_errors_latest_since_2021.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_errors_latest_since_2021.xlsx
@@ -501,34 +501,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.7916129955631771</v>
+        <v>-1.579792844692939</v>
       </c>
       <c r="C2">
-        <v>-1.579792844692939</v>
+        <v>-0.9155274120541215</v>
       </c>
       <c r="D2">
-        <v>-0.9155274120541215</v>
+        <v>-0.1460550576300293</v>
       </c>
       <c r="E2">
-        <v>-0.1460550576300293</v>
+        <v>-0.2386646425575917</v>
       </c>
       <c r="F2">
-        <v>-0.2386646425575917</v>
+        <v>0.4822622889884105</v>
       </c>
       <c r="G2">
-        <v>0.4822622889884105</v>
+        <v>-0.2266896356254442</v>
       </c>
       <c r="H2">
-        <v>-0.2266896356254442</v>
+        <v>0.2654163566970329</v>
       </c>
       <c r="I2">
-        <v>0.2654163566970329</v>
+        <v>0.7352211039700201</v>
       </c>
       <c r="J2">
-        <v>0.7352211039700201</v>
+        <v>1.048046298935466</v>
       </c>
       <c r="K2">
-        <v>1.048046298935466</v>
+        <v>0.169643717683886</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -536,34 +536,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-3.727363316492332</v>
+        <v>-3.063097883853514</v>
       </c>
       <c r="C3">
-        <v>-3.063097883853514</v>
+        <v>-2.293625529429422</v>
       </c>
       <c r="D3">
-        <v>-2.293625529429422</v>
+        <v>-2.386235114356984</v>
       </c>
       <c r="E3">
-        <v>-2.386235114356984</v>
+        <v>-1.665308182810982</v>
       </c>
       <c r="F3">
-        <v>-1.665308182810982</v>
+        <v>-2.374260107424837</v>
       </c>
       <c r="G3">
-        <v>-2.374260107424837</v>
+        <v>-1.88215411510236</v>
       </c>
       <c r="H3">
-        <v>-1.88215411510236</v>
+        <v>-1.412349367829372</v>
       </c>
       <c r="I3">
-        <v>-1.412349367829372</v>
+        <v>-1.099524172863926</v>
       </c>
       <c r="J3">
-        <v>-1.099524172863926</v>
+        <v>-1.977926754115506</v>
       </c>
       <c r="K3">
-        <v>-1.977926754115506</v>
+        <v>-2.707838769293975</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -571,34 +571,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.376932102669816</v>
+        <v>1.146404457093908</v>
       </c>
       <c r="C4">
-        <v>1.146404457093908</v>
+        <v>1.053794872166346</v>
       </c>
       <c r="D4">
-        <v>1.053794872166346</v>
+        <v>1.774721803712348</v>
       </c>
       <c r="E4">
-        <v>1.774721803712348</v>
+        <v>1.065769879098493</v>
       </c>
       <c r="F4">
-        <v>1.065769879098493</v>
+        <v>1.55787587142097</v>
       </c>
       <c r="G4">
-        <v>1.55787587142097</v>
+        <v>2.027680618693958</v>
       </c>
       <c r="H4">
-        <v>2.027680618693958</v>
+        <v>2.340505813659403</v>
       </c>
       <c r="I4">
-        <v>2.340505813659403</v>
+        <v>1.462103232407824</v>
       </c>
       <c r="J4">
-        <v>1.462103232407824</v>
+        <v>0.7321912172293545</v>
       </c>
       <c r="K4">
-        <v>0.7321912172293545</v>
+        <v>2.394370313618982</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -606,34 +606,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1.207578635508109</v>
+        <v>1.114969050580547</v>
       </c>
       <c r="C5">
-        <v>1.114969050580547</v>
+        <v>1.835895982126549</v>
       </c>
       <c r="D5">
-        <v>1.835895982126549</v>
+        <v>1.126944057512694</v>
       </c>
       <c r="E5">
-        <v>1.126944057512694</v>
+        <v>1.619050049835171</v>
       </c>
       <c r="F5">
-        <v>1.619050049835171</v>
+        <v>2.088854797108159</v>
       </c>
       <c r="G5">
-        <v>2.088854797108159</v>
+        <v>2.401679992073604</v>
       </c>
       <c r="H5">
-        <v>2.401679992073604</v>
+        <v>1.523277410822025</v>
       </c>
       <c r="I5">
-        <v>1.523277410822025</v>
+        <v>0.7933653956435556</v>
       </c>
       <c r="J5">
-        <v>0.7933653956435556</v>
+        <v>2.455544492033183</v>
       </c>
       <c r="K5">
-        <v>2.455544492033183</v>
+        <v>1.836325203637939</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -641,34 +641,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.9264868865757077</v>
+        <v>-0.2055599550297054</v>
       </c>
       <c r="C6">
-        <v>-0.2055599550297054</v>
+        <v>-0.9145118796435601</v>
       </c>
       <c r="D6">
-        <v>-0.9145118796435601</v>
+        <v>-0.422405887321083</v>
       </c>
       <c r="E6">
-        <v>-0.422405887321083</v>
+        <v>0.04739885995190407</v>
       </c>
       <c r="F6">
-        <v>0.04739885995190407</v>
+        <v>0.36022405491735</v>
       </c>
       <c r="G6">
-        <v>0.36022405491735</v>
+        <v>-0.5181785263342299</v>
       </c>
       <c r="H6">
-        <v>-0.5181785263342299</v>
+        <v>-1.248090541512699</v>
       </c>
       <c r="I6">
-        <v>-1.248090541512699</v>
+        <v>0.4140885548769285</v>
       </c>
       <c r="J6">
-        <v>0.4140885548769285</v>
+        <v>-0.2051307335183153</v>
       </c>
       <c r="K6">
-        <v>-0.2051307335183153</v>
+        <v>0.03217303010139827</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -676,34 +676,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.3770345820039356</v>
+        <v>-0.3319173426099191</v>
       </c>
       <c r="C7">
-        <v>-0.3319173426099191</v>
+        <v>0.160188649712558</v>
       </c>
       <c r="D7">
-        <v>0.160188649712558</v>
+        <v>0.6299933969855451</v>
       </c>
       <c r="E7">
-        <v>0.6299933969855451</v>
+        <v>0.942818591950991</v>
       </c>
       <c r="F7">
-        <v>0.942818591950991</v>
+        <v>0.06441601069941108</v>
       </c>
       <c r="G7">
-        <v>0.06441601069941108</v>
+        <v>-0.6654960044790579</v>
       </c>
       <c r="H7">
-        <v>-0.6654960044790579</v>
+        <v>0.9966830919105695</v>
       </c>
       <c r="I7">
-        <v>0.9966830919105695</v>
+        <v>0.3774638035153257</v>
       </c>
       <c r="J7">
-        <v>0.3774638035153257</v>
+        <v>0.6147675671350392</v>
       </c>
       <c r="K7">
-        <v>0.6147675671350392</v>
+        <v>0.5114901972596275</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -711,34 +711,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.4275923834192769</v>
+        <v>0.0645136089032002</v>
       </c>
       <c r="C8">
-        <v>0.0645136089032002</v>
+        <v>0.5343183561761873</v>
       </c>
       <c r="D8">
-        <v>0.5343183561761873</v>
+        <v>0.8471435511416332</v>
       </c>
       <c r="E8">
-        <v>0.8471435511416332</v>
+        <v>-0.03125903010994671</v>
       </c>
       <c r="F8">
-        <v>-0.03125903010994671</v>
+        <v>-0.7611710452884157</v>
       </c>
       <c r="G8">
-        <v>-0.7611710452884157</v>
+        <v>0.9010080511012117</v>
       </c>
       <c r="H8">
-        <v>0.9010080511012117</v>
+        <v>0.2817887627059679</v>
       </c>
       <c r="I8">
-        <v>0.2817887627059679</v>
+        <v>0.5190925263256815</v>
       </c>
       <c r="J8">
-        <v>0.5190925263256815</v>
+        <v>0.4158151564502698</v>
       </c>
       <c r="K8">
-        <v>0.4158151564502698</v>
+        <v>-0.3757832708791649</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -746,34 +746,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.324932645901923</v>
+        <v>0.7947373931749101</v>
       </c>
       <c r="C9">
-        <v>0.7947373931749101</v>
+        <v>1.107562588140356</v>
       </c>
       <c r="D9">
-        <v>1.107562588140356</v>
+        <v>0.2291600068887761</v>
       </c>
       <c r="E9">
-        <v>0.2291600068887761</v>
+        <v>-0.5007520082896928</v>
       </c>
       <c r="F9">
-        <v>-0.5007520082896928</v>
+        <v>1.161427088099934</v>
       </c>
       <c r="G9">
-        <v>1.161427088099934</v>
+        <v>0.5422077997046907</v>
       </c>
       <c r="H9">
-        <v>0.5422077997046907</v>
+        <v>0.7795115633244043</v>
       </c>
       <c r="I9">
-        <v>0.7795115633244043</v>
+        <v>0.6762341934489926</v>
       </c>
       <c r="J9">
-        <v>0.6762341934489926</v>
+        <v>-0.1153642338804421</v>
       </c>
       <c r="K9">
-        <v>-0.1153642338804421</v>
+        <v>0.4951246737870189</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -781,34 +781,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.04071760298358112</v>
+        <v>0.2721075919818648</v>
       </c>
       <c r="C10">
-        <v>0.2721075919818648</v>
+        <v>-0.6062949892697151</v>
       </c>
       <c r="D10">
-        <v>-0.6062949892697151</v>
+        <v>-1.336207004448184</v>
       </c>
       <c r="E10">
-        <v>-1.336207004448184</v>
+        <v>0.3259720919414433</v>
       </c>
       <c r="F10">
-        <v>0.3259720919414433</v>
+        <v>-0.2932471964538005</v>
       </c>
       <c r="G10">
-        <v>-0.2932471964538005</v>
+        <v>-0.05594343283408693</v>
       </c>
       <c r="H10">
-        <v>-0.05594343283408693</v>
+        <v>-0.1592208027094986</v>
       </c>
       <c r="I10">
-        <v>-0.1592208027094986</v>
+        <v>-0.9508192300389333</v>
       </c>
       <c r="J10">
-        <v>-0.9508192300389333</v>
+        <v>-0.3403303223714723</v>
       </c>
       <c r="K10">
-        <v>-0.3403303223714723</v>
+        <v>-0.5018523531907899</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -816,33 +816,30 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.3721869518844864</v>
+        <v>-0.5062156293670936</v>
       </c>
       <c r="C11">
-        <v>-0.5062156293670936</v>
+        <v>-1.236127644545562</v>
       </c>
       <c r="D11">
-        <v>-1.236127644545562</v>
+        <v>0.4260514518440648</v>
       </c>
       <c r="E11">
-        <v>0.4260514518440648</v>
+        <v>-0.193167836551179</v>
       </c>
       <c r="F11">
-        <v>-0.193167836551179</v>
+        <v>0.04413592706853459</v>
       </c>
       <c r="G11">
-        <v>0.04413592706853459</v>
+        <v>-0.05914144280687711</v>
       </c>
       <c r="H11">
-        <v>-0.05914144280687711</v>
+        <v>-0.8507398701363118</v>
       </c>
       <c r="I11">
-        <v>-0.8507398701363118</v>
+        <v>-0.2402509624688508</v>
       </c>
       <c r="J11">
-        <v>-0.2402509624688508</v>
-      </c>
-      <c r="K11">
         <v>-0.4017729932881683</v>
       </c>
     </row>
@@ -851,30 +848,27 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.1524291232873974</v>
+        <v>-0.8823411384658664</v>
       </c>
       <c r="C12">
-        <v>-0.8823411384658664</v>
+        <v>0.779837957923761</v>
       </c>
       <c r="D12">
-        <v>0.779837957923761</v>
+        <v>0.1606186695285172</v>
       </c>
       <c r="E12">
-        <v>0.1606186695285172</v>
+        <v>0.3979224331482308</v>
       </c>
       <c r="F12">
-        <v>0.3979224331482308</v>
+        <v>0.2946450632728191</v>
       </c>
       <c r="G12">
-        <v>0.2946450632728191</v>
+        <v>-0.4969533640566156</v>
       </c>
       <c r="H12">
-        <v>-0.4969533640566156</v>
+        <v>0.1135355436108454</v>
       </c>
       <c r="I12">
-        <v>0.1135355436108454</v>
-      </c>
-      <c r="J12">
         <v>-0.04798648720847212</v>
       </c>
     </row>
@@ -883,27 +877,24 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1.030518528898312</v>
+        <v>0.6316605674913157</v>
       </c>
       <c r="C13">
-        <v>0.6316605674913157</v>
+        <v>0.0124412790960719</v>
       </c>
       <c r="D13">
-        <v>0.0124412790960719</v>
+        <v>0.2497450427157855</v>
       </c>
       <c r="E13">
-        <v>0.2497450427157855</v>
+        <v>0.1464676728403738</v>
       </c>
       <c r="F13">
-        <v>0.1464676728403738</v>
+        <v>-0.6451307544890609</v>
       </c>
       <c r="G13">
-        <v>-0.6451307544890609</v>
+        <v>-0.03464184682159993</v>
       </c>
       <c r="H13">
-        <v>-0.03464184682159993</v>
-      </c>
-      <c r="I13">
         <v>-0.1961638776409175</v>
       </c>
     </row>
@@ -912,24 +903,21 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.4742145784871607</v>
+        <v>-0.1450047099080831</v>
       </c>
       <c r="C14">
-        <v>-0.1450047099080831</v>
+        <v>0.0922990537116305</v>
       </c>
       <c r="D14">
-        <v>0.0922990537116305</v>
+        <v>-0.0109783161637812</v>
       </c>
       <c r="E14">
-        <v>-0.0109783161637812</v>
+        <v>-0.8025767434932158</v>
       </c>
       <c r="F14">
-        <v>-0.8025767434932158</v>
+        <v>-0.1920878358257549</v>
       </c>
       <c r="G14">
-        <v>-0.1920878358257549</v>
-      </c>
-      <c r="H14">
         <v>-0.3536098666450724</v>
       </c>
     </row>
@@ -938,21 +926,18 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.3556547466179877</v>
+        <v>0.5929585102377013</v>
       </c>
       <c r="C15">
-        <v>0.5929585102377013</v>
+        <v>0.4896811403622896</v>
       </c>
       <c r="D15">
-        <v>0.4896811403622896</v>
+        <v>-0.3019172869671451</v>
       </c>
       <c r="E15">
-        <v>-0.3019172869671451</v>
+        <v>0.3085716207003159</v>
       </c>
       <c r="F15">
-        <v>0.3085716207003159</v>
-      </c>
-      <c r="G15">
         <v>0.1470495898809984</v>
       </c>
     </row>
@@ -961,69 +946,54 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.3126006297022321</v>
+        <v>0.2093232598268204</v>
       </c>
       <c r="C16">
-        <v>0.2093232598268204</v>
+        <v>-0.5822751675026142</v>
       </c>
       <c r="D16">
-        <v>-0.5822751675026142</v>
+        <v>0.02821374016484672</v>
       </c>
       <c r="E16">
-        <v>0.02821374016484672</v>
-      </c>
-      <c r="F16">
         <v>-0.1333082906544708</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.3812981176718321</v>
+        <v>-0.4103003096576026</v>
       </c>
       <c r="C17">
-        <v>-0.4103003096576026</v>
+        <v>0.2001885980098584</v>
       </c>
       <c r="D17">
-        <v>0.2001885980098584</v>
-      </c>
-      <c r="E17">
         <v>0.03866656719054083</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-0.716162849403934</v>
+        <v>-0.1056739417364731</v>
       </c>
       <c r="C18">
-        <v>-0.1056739417364731</v>
-      </c>
-      <c r="D18">
         <v>-0.2671959725557906</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.506656010950813</v>
-      </c>
-      <c r="C19">
         <v>0.3451339801314955</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B20">
-        <v>-0.343237405067616</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_errors_latest_since_2021.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_errors_latest_since_2021.xlsx
@@ -501,34 +501,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>0.7916129955631771</v>
+      </c>
+      <c r="C2">
         <v>-1.579792844692939</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-0.9155274120541215</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-0.1460550576300293</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>-0.2386646425575917</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.4822622889884105</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-0.2266896356254442</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.2654163566970329</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.7352211039700201</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1.048046298935466</v>
-      </c>
-      <c r="K2">
-        <v>0.169643717683886</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -536,34 +536,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>-3.727363316492332</v>
+      </c>
+      <c r="C3">
         <v>-3.063097883853514</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>-2.293625529429422</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-2.386235114356984</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-1.665308182810982</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-2.374260107424837</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-1.88215411510236</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-1.412349367829372</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-1.099524172863926</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-1.977926754115506</v>
-      </c>
-      <c r="K3">
-        <v>-2.707838769293975</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -571,34 +571,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>0.376932102669816</v>
+      </c>
+      <c r="C4">
         <v>1.146404457093908</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1.053794872166346</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1.774721803712348</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.065769879098493</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1.55787587142097</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2.027680618693958</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2.340505813659403</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1.462103232407824</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.7321912172293545</v>
-      </c>
-      <c r="K4">
-        <v>2.394370313618982</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -606,34 +606,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>1.207578635508109</v>
+      </c>
+      <c r="C5">
         <v>1.114969050580547</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1.835895982126549</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.126944057512694</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.619050049835171</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2.088854797108159</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2.401679992073604</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.523277410822025</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.7933653956435556</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2.455544492033183</v>
-      </c>
-      <c r="K5">
-        <v>1.836325203637939</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -641,34 +641,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>-0.9264868865757077</v>
+      </c>
+      <c r="C6">
         <v>-0.2055599550297054</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-0.9145118796435601</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-0.422405887321083</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.04739885995190407</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.36022405491735</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-0.5181785263342299</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-1.248090541512699</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.4140885548769285</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-0.2051307335183153</v>
-      </c>
-      <c r="K6">
-        <v>0.03217303010139827</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -676,34 +676,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>0.3770345820039356</v>
+      </c>
+      <c r="C7">
         <v>-0.3319173426099191</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.160188649712558</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.6299933969855451</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.942818591950991</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.06441601069941108</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-0.6654960044790579</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.9966830919105695</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.3774638035153257</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.6147675671350392</v>
-      </c>
-      <c r="K7">
-        <v>0.5114901972596275</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -711,34 +711,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>-0.4275923834192769</v>
+      </c>
+      <c r="C8">
         <v>0.0645136089032002</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.5343183561761873</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.8471435511416332</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-0.03125903010994671</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-0.7611710452884157</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.9010080511012117</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.2817887627059679</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.5190925263256815</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.4158151564502698</v>
-      </c>
-      <c r="K8">
-        <v>-0.3757832708791649</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -746,34 +746,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>0.324932645901923</v>
+      </c>
+      <c r="C9">
         <v>0.7947373931749101</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1.107562588140356</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.2291600068887761</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-0.5007520082896928</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1.161427088099934</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.5422077997046907</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.7795115633244043</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.6762341934489926</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-0.1153642338804421</v>
-      </c>
-      <c r="K9">
-        <v>0.4951246737870189</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -781,34 +781,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>-0.04071760298358112</v>
+      </c>
+      <c r="C10">
         <v>0.2721075919818648</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.6062949892697151</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-1.336207004448184</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.3259720919414433</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-0.2932471964538005</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-0.05594343283408693</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-0.1592208027094986</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-0.9508192300389333</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-0.3403303223714723</v>
-      </c>
-      <c r="K10">
-        <v>-0.5018523531907899</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -816,30 +816,33 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>0.3721869518844864</v>
+      </c>
+      <c r="C11">
         <v>-0.5062156293670936</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-1.236127644545562</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.4260514518440648</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-0.193167836551179</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.04413592706853459</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-0.05914144280687711</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-0.8507398701363118</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-0.2402509624688508</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-0.4017729932881683</v>
       </c>
     </row>
@@ -848,27 +851,30 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>-0.1524291232873974</v>
+      </c>
+      <c r="C12">
         <v>-0.8823411384658664</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.779837957923761</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.1606186695285172</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.3979224331482308</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.2946450632728191</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-0.4969533640566156</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.1135355436108454</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-0.04798648720847212</v>
       </c>
     </row>
@@ -877,24 +883,27 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>-1.030518528898312</v>
+      </c>
+      <c r="C13">
         <v>0.6316605674913157</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.0124412790960719</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.2497450427157855</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.1464676728403738</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-0.6451307544890609</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-0.03464184682159993</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-0.1961638776409175</v>
       </c>
     </row>
@@ -903,21 +912,24 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>0.4742145784871607</v>
+      </c>
+      <c r="C14">
         <v>-0.1450047099080831</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.0922990537116305</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-0.0109783161637812</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-0.8025767434932158</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-0.1920878358257549</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-0.3536098666450724</v>
       </c>
     </row>
@@ -926,18 +938,21 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>0.3556547466179877</v>
+      </c>
+      <c r="C15">
         <v>0.5929585102377013</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.4896811403622896</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-0.3019172869671451</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.3085716207003159</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.1470495898809984</v>
       </c>
     </row>
@@ -946,54 +961,69 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>0.3126006297022321</v>
+      </c>
+      <c r="C16">
         <v>0.2093232598268204</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-0.5822751675026142</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.02821374016484672</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-0.1333082906544708</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
+        <v>0.3812981176718321</v>
+      </c>
+      <c r="C17">
         <v>-0.4103003096576026</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.2001885980098584</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.03866656719054083</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
+        <v>-0.716162849403934</v>
+      </c>
+      <c r="C18">
         <v>-0.1056739417364731</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-0.2671959725557906</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
+        <v>0.506656010950813</v>
+      </c>
+      <c r="C19">
         <v>0.3451339801314955</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-0.343237405067616</v>
       </c>
     </row>
   </sheetData>
